--- a/docs/boekenverkoop/1-artikels/importbestand_artikels.xlsx
+++ b/docs/boekenverkoop/1-artikels/importbestand_artikels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tess.koppen\Documents\toolbox-handleiding\docs\boekenverkoop\1-artikels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB9C40A-30C8-4E7E-8E1C-3D35D12AD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F1A89-A2AB-48CA-A6A9-918D32A328A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A63253-5682-4765-9D32-09BC5F8B60DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>prijs</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>isbn</t>
+  </si>
+  <si>
+    <t>uitgever</t>
+  </si>
+  <si>
+    <t>huurprijs</t>
   </si>
 </sst>
 </file>
@@ -403,18 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2088B537-4624-4C6E-8525-ABE3CF0D2BDB}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="35.7109375" customWidth="1"/>
+    <col min="1" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -431,7 +437,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
